--- a/Kernindicatoren.xlsx
+++ b/Kernindicatoren.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18073" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18075" uniqueCount="906">
   <si>
     <t>Instrument</t>
   </si>
@@ -2732,6 +2732,12 @@
   </si>
   <si>
     <t>22a77</t>
+  </si>
+  <si>
+    <t>rt453</t>
+  </si>
+  <si>
+    <t>wer45</t>
   </si>
 </sst>
 </file>
@@ -3540,11 +3546,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4494"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -3695,8 +3708,8 @@
       <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="E9">
-        <v>22606</v>
+      <c r="E9" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3729,8 +3742,8 @@
       <c r="D11" t="s">
         <v>17</v>
       </c>
-      <c r="E11">
-        <v>22937</v>
+      <c r="E11" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
